--- a/Tercero/Estadistica/Nacho/Resumen.xlsx
+++ b/Tercero/Estadistica/Nacho/Resumen.xlsx
@@ -9,18 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8115" activeTab="2" xr2:uid="{84C93BB9-1F72-4530-8529-D3C60F6576D2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8115" xr2:uid="{84C93BB9-1F72-4530-8529-D3C60F6576D2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Basics" sheetId="1" r:id="rId1"/>
+    <sheet name="Variables aleatorias" sheetId="2" r:id="rId2"/>
+    <sheet name="Histograma" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="h">Hoja1!$E$4</definedName>
-    <definedName name="promedio">Hoja1!$E$3</definedName>
+    <definedName name="h">Basics!$E$4</definedName>
+    <definedName name="promedio">Basics!$E$3</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -306,13 +306,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="4" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -397,26 +397,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:view3D>
@@ -474,7 +454,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>Hoja2!$C$5:$W$5</c:f>
+              <c:f>'Variables aleatorias'!$C$5:$W$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -563,7 +543,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>Hoja2!$C$6:$W$6</c:f>
+              <c:f>'Variables aleatorias'!$C$6:$W$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -652,7 +632,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>Hoja2!$C$7:$W$7</c:f>
+              <c:f>'Variables aleatorias'!$C$7:$W$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -741,7 +721,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>Hoja2!$C$8:$W$8</c:f>
+              <c:f>'Variables aleatorias'!$C$8:$W$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -830,7 +810,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>Hoja2!$C$9:$W$9</c:f>
+              <c:f>'Variables aleatorias'!$C$9:$W$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -919,7 +899,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>Hoja2!$C$10:$W$10</c:f>
+              <c:f>'Variables aleatorias'!$C$10:$W$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1010,7 +990,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>Hoja2!$C$11:$W$11</c:f>
+              <c:f>'Variables aleatorias'!$C$11:$W$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1101,7 +1081,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>Hoja2!$C$12:$W$12</c:f>
+              <c:f>'Variables aleatorias'!$C$12:$W$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1192,7 +1172,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>Hoja2!$C$13:$W$13</c:f>
+              <c:f>'Variables aleatorias'!$C$13:$W$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1283,7 +1263,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>Hoja2!$C$14:$W$14</c:f>
+              <c:f>'Variables aleatorias'!$C$14:$W$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1374,7 +1354,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>Hoja2!$C$15:$W$15</c:f>
+              <c:f>'Variables aleatorias'!$C$15:$W$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1465,7 +1445,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>Hoja2!$C$16:$W$16</c:f>
+              <c:f>'Variables aleatorias'!$C$16:$W$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1557,7 +1537,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>Hoja2!$C$17:$W$17</c:f>
+              <c:f>'Variables aleatorias'!$C$17:$W$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1649,7 +1629,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>Hoja2!$C$18:$W$18</c:f>
+              <c:f>'Variables aleatorias'!$C$18:$W$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1741,7 +1721,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>Hoja2!$C$19:$W$19</c:f>
+              <c:f>'Variables aleatorias'!$C$19:$W$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1833,7 +1813,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>Hoja2!$C$20:$W$20</c:f>
+              <c:f>'Variables aleatorias'!$C$20:$W$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1925,7 +1905,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>Hoja2!$C$21:$W$21</c:f>
+              <c:f>'Variables aleatorias'!$C$21:$W$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2017,7 +1997,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>Hoja2!$C$22:$W$22</c:f>
+              <c:f>'Variables aleatorias'!$C$22:$W$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2108,7 +2088,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>Hoja2!$C$23:$W$23</c:f>
+              <c:f>'Variables aleatorias'!$C$23:$W$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2199,7 +2179,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>Hoja2!$C$24:$W$24</c:f>
+              <c:f>'Variables aleatorias'!$C$24:$W$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2290,7 +2270,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>Hoja2!$C$25:$W$25</c:f>
+              <c:f>'Variables aleatorias'!$C$25:$W$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2898,309 +2878,309 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja3!$C$7:$C$106</c:f>
+              <c:f>Histograma!$C$7:$C$106</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>9.2311336293713464E-2</c:v>
+                  <c:v>0.17549631166522039</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.84189026511395115</c:v>
+                  <c:v>0.56010078365830962</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.70575023366795508</c:v>
+                  <c:v>4.9940068878209898E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.9724125500594916E-2</c:v>
+                  <c:v>0.16857701963829574</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.44305266864289239</c:v>
+                  <c:v>0.80084865779789871</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.7886833822599773E-2</c:v>
+                  <c:v>0.32274745717724829</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.23998602278298131</c:v>
+                  <c:v>0.51232944916910661</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.6089632452631348E-2</c:v>
+                  <c:v>0.91770928399602103</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.35471171218748054</c:v>
+                  <c:v>0.35052056811437327</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.7795057718130437</c:v>
+                  <c:v>0.9836137080093954</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.39908309392331442</c:v>
+                  <c:v>3.9567383728049688E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.73888516460764586</c:v>
+                  <c:v>0.61678746532423989</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.58682153465750841</c:v>
+                  <c:v>0.66162745481643204</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.77535593444927342</c:v>
+                  <c:v>0.21114708466322574</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.10425494565606819</c:v>
+                  <c:v>0.20234635522753053</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.4953757647974959</c:v>
+                  <c:v>0.75150016635748507</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.33520652585911581</c:v>
+                  <c:v>0.20555112029036848</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.2351083011811426E-2</c:v>
+                  <c:v>1.3793467476694632E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.12781267215217074</c:v>
+                  <c:v>0.73704504014449101</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.218543772255348E-2</c:v>
+                  <c:v>0.56299253454571252</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.6990853728578531</c:v>
+                  <c:v>0.43370903606183453</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.58678916993938879</c:v>
+                  <c:v>0.79860400391885789</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.47568961268862131</c:v>
+                  <c:v>0.5588006932920826</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.60770753182958226</c:v>
+                  <c:v>0.66483798981963838</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.72602221606626516</c:v>
+                  <c:v>0.87538554611800201</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.22832045372157628</c:v>
+                  <c:v>0.70194272536719038</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.45033139508915099</c:v>
+                  <c:v>0.26406134671064085</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.7850624753033624E-2</c:v>
+                  <c:v>0.62829358832027205</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.80609486962985466</c:v>
+                  <c:v>0.18970211253730473</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.53689650329411087</c:v>
+                  <c:v>0.94478453854219235</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.38680063578930246</c:v>
+                  <c:v>0.79782591283806437</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.55492432748920484</c:v>
+                  <c:v>0.34765950749203789</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.42571832570015411</c:v>
+                  <c:v>0.2981428635949811</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.50641140920456318</c:v>
+                  <c:v>0.59962351740275011</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.77828905663357018</c:v>
+                  <c:v>0.51312031829160121</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.34696634635704682</c:v>
+                  <c:v>0.18421858284064574</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.55010761085322957</c:v>
+                  <c:v>8.1517434230528485E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.18692323866568217</c:v>
+                  <c:v>0.80991171393255323</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.91645134137400686</c:v>
+                  <c:v>0.20324319558458936</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.19003872173388281</c:v>
+                  <c:v>0.25626127551149069</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.43305999391347483</c:v>
+                  <c:v>9.7382553871118493E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.77581279558612481</c:v>
+                  <c:v>0.55735222278679597</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.0157862319704281E-2</c:v>
+                  <c:v>0.98290340845751945</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6.0543184678117257E-2</c:v>
+                  <c:v>8.7487900160218346E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.25884769298399146</c:v>
+                  <c:v>6.1307194594271475E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.75358519687718084</c:v>
+                  <c:v>0.76114753506367971</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.43746974199053257</c:v>
+                  <c:v>0.25569400071542103</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6.5133680653682635E-2</c:v>
+                  <c:v>0.55445174315165091</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.83757642215726202</c:v>
+                  <c:v>0.12087593830035659</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.99151916393465889</c:v>
+                  <c:v>0.61398347785300178</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.61534981383459797</c:v>
+                  <c:v>0.37685109164796349</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.54050277966983307</c:v>
+                  <c:v>0.39806453956534171</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.69416438677583747</c:v>
+                  <c:v>8.8514274059693809E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.56121540614669208</c:v>
+                  <c:v>5.9405599273963938E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.61883601468908789</c:v>
+                  <c:v>0.36845331764685407</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.81082274538374122</c:v>
+                  <c:v>0.29485613498666008</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.61266330036191252</c:v>
+                  <c:v>0.40639351925252265</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.4563552492192562E-2</c:v>
+                  <c:v>0.31629496485455844</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.79176342150939438</c:v>
+                  <c:v>0.32911501245951391</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.26108771029011091</c:v>
+                  <c:v>0.4868807299288388</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.59445231219747197</c:v>
+                  <c:v>0.87146796798083159</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.2474963322602004</c:v>
+                  <c:v>0.60690359677832972</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.37756387041811224</c:v>
+                  <c:v>0.95355665347843188</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.98932975898236197</c:v>
+                  <c:v>0.96778456193894791</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.21047336802267136</c:v>
+                  <c:v>0.13369834286416304</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.93237949751312077</c:v>
+                  <c:v>0.261376324513511</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.85537576799932902</c:v>
+                  <c:v>6.2356178705468057E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.67416866734401315</c:v>
+                  <c:v>0.71744983392247119</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.73153492314811996</c:v>
+                  <c:v>0.22032478738336825</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.96120644867988947</c:v>
+                  <c:v>3.9743899491623935E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.22180283412251411</c:v>
+                  <c:v>0.88904030357088226</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.64405647500022789</c:v>
+                  <c:v>0.75171935811508883</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.39493626770226709</c:v>
+                  <c:v>0.35531069783233382</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.65172369984836565</c:v>
+                  <c:v>0.76628792816399505</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.80133316540509703</c:v>
+                  <c:v>0.18533226084963805</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.33539643224658122</c:v>
+                  <c:v>0.94452180588255674</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.55638517482701788</c:v>
+                  <c:v>0.18801071783797652</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.4750382987463126E-2</c:v>
+                  <c:v>0.2421748887743852</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.64614905113502974</c:v>
+                  <c:v>0.20050600470365676</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3.6717913658571799E-2</c:v>
+                  <c:v>0.8884991822787538</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.6066764744845704</c:v>
+                  <c:v>0.63717842727108687</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.34417581460136804</c:v>
+                  <c:v>0.78042972149205647</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.340929155781032</c:v>
+                  <c:v>0.47136317884542256</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.64671372840429331</c:v>
+                  <c:v>2.3455630554524598E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.70628317728683088</c:v>
+                  <c:v>0.57841345181184367</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.73889280826275161</c:v>
+                  <c:v>2.5176587857975719E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.49390359060135425</c:v>
+                  <c:v>0.80018804079290284</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.14316506173804144</c:v>
+                  <c:v>0.59884028008199808</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.39077441879271679</c:v>
+                  <c:v>0.51781470151844899</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.3572337529271451</c:v>
+                  <c:v>0.9847633009677812</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.29060406248199344</c:v>
+                  <c:v>0.59055016357183243</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.90516848925182491</c:v>
+                  <c:v>0.4388183657431628</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.82473812642608579</c:v>
+                  <c:v>0.90290738735329368</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.96769657463066094</c:v>
+                  <c:v>0.9879180534922346</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>8.6782540128051311E-2</c:v>
+                  <c:v>0.69287323050274752</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4.8659797606667721E-2</c:v>
+                  <c:v>0.19756978183108409</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.71076205272618231</c:v>
+                  <c:v>0.73472776012753593</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.36115770355618881</c:v>
+                  <c:v>0.43881315689204281</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.62537060681909107</c:v>
+                  <c:v>0.20732529865738658</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.44503704440232861</c:v>
+                  <c:v>0.87665702342078022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3501,309 +3481,309 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja3!$D$7:$D$106</c:f>
+              <c:f>Histograma!$D$7:$D$106</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>0.30601070030513533</c:v>
+                  <c:v>0.31505186796532531</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.113023551941275</c:v>
+                  <c:v>0.67516661201149752</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19086762748539404</c:v>
+                  <c:v>4.0135780543295883E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.85009534042600132</c:v>
+                  <c:v>3.5602535454228962E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13679005354783841</c:v>
+                  <c:v>0.72151885571867014</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.90469097546400334</c:v>
+                  <c:v>0.20189126712350042</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1473100434643854E-2</c:v>
+                  <c:v>0.95260106483707252</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.3269538158650902E-2</c:v>
+                  <c:v>0.19885287631154275</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.13684637703224645</c:v>
+                  <c:v>5.3926360286026941E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.42443178454758751</c:v>
+                  <c:v>0.46882458574325514</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.29014872699384087</c:v>
+                  <c:v>2.1367233552290438E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.36215248827584834</c:v>
+                  <c:v>0.72549325554352262</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.21866989422656088</c:v>
+                  <c:v>0.14049088679486038</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.12497322771195195</c:v>
+                  <c:v>5.1907044913112751E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.20271952310978184</c:v>
+                  <c:v>0.28075831988897931</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.50288376549218405</c:v>
+                  <c:v>3.6265350441451391E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.8056935027258597E-2</c:v>
+                  <c:v>4.8654781764241109E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.53561043144829934</c:v>
+                  <c:v>0.48004978330607873</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.52841939545050276</c:v>
+                  <c:v>0.64904871194177249</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.72041512777715011</c:v>
+                  <c:v>1.532238958091672E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.72719704906340765</c:v>
+                  <c:v>0.56657552015421431</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.77538780314558808</c:v>
+                  <c:v>0.37138660443340987</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.10728209667468831</c:v>
+                  <c:v>2.9952716987723853E-4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.39685188441598607</c:v>
+                  <c:v>8.6490769459140346E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.17371268559982136</c:v>
+                  <c:v>4.067895809947504E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.68018807791990832</c:v>
+                  <c:v>6.3066723376720007E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.19631965346379346</c:v>
+                  <c:v>0.36630858798270266</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.69612600148021508</c:v>
+                  <c:v>2.254510567380252E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.24709962419108128</c:v>
+                  <c:v>0.36626506317787927</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.79751263562422303</c:v>
+                  <c:v>0.90108972825219458</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.14818929961613245</c:v>
+                  <c:v>1.7838369545963014E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.44478524828253835</c:v>
+                  <c:v>0.58600556629277312</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.53896014894480315</c:v>
+                  <c:v>0.1737495886393455</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.63867894047870721</c:v>
+                  <c:v>1.9873395016286235E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.24590068649294669</c:v>
+                  <c:v>6.694496409598771E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.5363798959267731E-2</c:v>
+                  <c:v>0.76283656855225346</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.76321250631095172</c:v>
+                  <c:v>0.31464884327278575</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.125530627502009</c:v>
+                  <c:v>0.96710175139392407</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.1340009636108747E-2</c:v>
+                  <c:v>4.8308319551780849E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.98289458351739878</c:v>
+                  <c:v>4.3169020526949951E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.4474633031326055E-2</c:v>
+                  <c:v>0.59594858851570542</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.51986322297665344</c:v>
+                  <c:v>4.1140744870031983E-5</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>7.6524819821815263E-2</c:v>
+                  <c:v>0.84589499081374808</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.30480494642427042</c:v>
+                  <c:v>9.9258275357702749E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.517617264946856</c:v>
+                  <c:v>9.0049017642983759E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.31303884388447251</c:v>
+                  <c:v>0.8709740465286353</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.7717531661030177</c:v>
+                  <c:v>8.7580752440440446E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.37528381113464093</c:v>
+                  <c:v>5.0462750213919223E-3</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.14870345361924997</c:v>
+                  <c:v>0.42606293300718301</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.12913514944250251</c:v>
+                  <c:v>2.5131333563616644E-3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.75752080395592936</c:v>
+                  <c:v>8.4675069570953054E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.789968541031545E-3</c:v>
+                  <c:v>5.0743304167506526E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.3329141150091083E-2</c:v>
+                  <c:v>0.71604375609718884</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.41945408429788761</c:v>
+                  <c:v>0.84578162795865164</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.6428703776132524E-2</c:v>
+                  <c:v>7.1619902990668347E-3</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.5586432497080149E-2</c:v>
+                  <c:v>0.75687519620275046</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.79019173369687834</c:v>
+                  <c:v>0.36766167729165011</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.29911902388313849</c:v>
+                  <c:v>0.86194793068450937</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.27693883151170778</c:v>
+                  <c:v>0.14536872107799093</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.15177074544526439</c:v>
+                  <c:v>9.9267640378563046E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.46289135229528422</c:v>
+                  <c:v>0.63361024675065503</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.92109151348620832</c:v>
+                  <c:v>0.16183983186550405</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6.9225040498010523E-2</c:v>
+                  <c:v>0.57976998000378954</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.33922085834798515</c:v>
+                  <c:v>0.42567009239746834</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.39316707119574917</c:v>
+                  <c:v>0.67803958071247561</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.3786013306193769</c:v>
+                  <c:v>0.39585664659701669</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.49700021511779841</c:v>
+                  <c:v>6.3800987240576271E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.5781756012744852</c:v>
+                  <c:v>0.63217420966792415</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.57968208692074041</c:v>
+                  <c:v>5.5315222086278884E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.24986322434314914</c:v>
+                  <c:v>0.15073506130112835</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4.2283332196643691E-3</c:v>
+                  <c:v>0.3204890831277718</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.93007772429975044</c:v>
+                  <c:v>0.33927158473632407</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>8.7677363843253683E-2</c:v>
+                  <c:v>4.5914483547693515E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.7573129059235294</c:v>
+                  <c:v>0.20592302616591968</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.1311486395995313</c:v>
+                  <c:v>0.4246002820236045</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>4.6363785328057842E-2</c:v>
+                  <c:v>0.46628240788331593</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3.7946520244281558E-2</c:v>
+                  <c:v>4.6778866062269032E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.3665311913904875E-2</c:v>
+                  <c:v>0.25093641958334789</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.31980861777793934</c:v>
+                  <c:v>0.8226889880607392</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>4.6121621270780143E-3</c:v>
+                  <c:v>6.2264178673221662E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>4.2705786832298538E-2</c:v>
+                  <c:v>0.26656507562553389</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.66454679677471806</c:v>
+                  <c:v>7.7006589715721288E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.65933571050133288</c:v>
+                  <c:v>3.0386905783884983E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.78946286957009448</c:v>
+                  <c:v>0.44432617122901696</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>5.2020530172783089E-2</c:v>
+                  <c:v>0.18560108796005814</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.21393985424448586</c:v>
+                  <c:v>0.4693752695484687</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.53878516545776534</c:v>
+                  <c:v>0.19424862279161023</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.81630551837347953</c:v>
+                  <c:v>3.1399343741132388E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>5.2693251206595133E-2</c:v>
+                  <c:v>0.31669581536530261</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.49786472055057301</c:v>
+                  <c:v>0.18444612003061378</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.55750913965482973</c:v>
+                  <c:v>0.72342095174445897</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.78907027178114497</c:v>
+                  <c:v>7.8001553660596454E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.65073126791805913</c:v>
+                  <c:v>5.083279450108967E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.2318565692488761</c:v>
+                  <c:v>0.11275224695572097</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.35550182790088425</c:v>
+                  <c:v>0.88824112917002318</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.5819959778606254E-2</c:v>
+                  <c:v>0.69129079300397278</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.46475485296951041</c:v>
+                  <c:v>0.18968814976013659</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.33312185041460479</c:v>
+                  <c:v>0.92565107709109185</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2.5131681992318709E-2</c:v>
+                  <c:v>0.9443188374506456</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.22116273614253165</c:v>
+                  <c:v>6.1823324104239375E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4060,7 +4040,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>(Hoja3!$H$8,Hoja3!$H$9,Hoja3!$H$10,Hoja3!$H$11,Hoja3!$H$12)</c:f>
+              <c:f>(Histograma!$H$8,Histograma!$H$9,Histograma!$H$10,Histograma!$H$11,Histograma!$H$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4084,24 +4064,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja3!$J$8:$J$12</c:f>
+              <c:f>Histograma!$J$8:$J$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.2</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21</c:v>
+                  <c:v>0.23</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.19</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.26</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6385,7 +6365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FE1913-F195-4C65-A765-AC47712F9ECE}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -6409,7 +6389,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <f>(A2-promedio)^2</f>
+        <f t="shared" ref="B2:B15" si="0">(A2-promedio)^2</f>
         <v>42.25</v>
       </c>
     </row>
@@ -6418,7 +6398,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <f>(A3-promedio)^2</f>
+        <f t="shared" si="0"/>
         <v>30.25</v>
       </c>
       <c r="D3" t="s">
@@ -6434,7 +6414,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <f>(A4-promedio)^2</f>
+        <f t="shared" si="0"/>
         <v>20.25</v>
       </c>
       <c r="D4" t="s">
@@ -6453,7 +6433,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <f>(A5-promedio)^2</f>
+        <f t="shared" si="0"/>
         <v>12.25</v>
       </c>
       <c r="D5" t="s">
@@ -6469,7 +6449,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <f>(A6-promedio)^2</f>
+        <f t="shared" si="0"/>
         <v>6.25</v>
       </c>
     </row>
@@ -6478,7 +6458,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <f>(A7-promedio)^2</f>
+        <f t="shared" si="0"/>
         <v>2.25</v>
       </c>
       <c r="D7" t="s">
@@ -6498,67 +6478,67 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <f>(A8-promedio)^2</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <f t="shared" ref="A9:A14" si="0">A8+1</f>
+        <f t="shared" ref="A9:A14" si="1">A8+1</f>
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <f>(A9-promedio)^2</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <f>(A10-promedio)^2</f>
+        <f t="shared" si="0"/>
         <v>2.25</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <f>(A11-promedio)^2</f>
+        <f t="shared" si="0"/>
         <v>6.25</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <f>(A12-promedio)^2</f>
+        <f t="shared" si="0"/>
         <v>12.25</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <f>(A13-promedio)^2</f>
+        <f t="shared" si="0"/>
         <v>20.25</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <f>(A14-promedio)^2</f>
+        <f t="shared" si="0"/>
         <v>30.25</v>
       </c>
     </row>
@@ -6568,7 +6548,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <f>(A15-promedio)^2</f>
+        <f t="shared" si="0"/>
         <v>42.25</v>
       </c>
     </row>
@@ -8554,7 +8534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A605E60-1BF9-492A-9C41-AEB8275AA13B}">
   <dimension ref="A1:J106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="J8" sqref="J8:J12"/>
     </sheetView>
   </sheetViews>
@@ -8568,12 +8548,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
@@ -8581,7 +8561,7 @@
       </c>
       <c r="F2">
         <f ca="1">AVERAGE(C7:C106)</f>
-        <v>0.48482291713440612</v>
+        <v>0.47909540634212844</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
@@ -8595,7 +8575,7 @@
       </c>
       <c r="F3">
         <f ca="1">AVERAGE(D7:D106)</f>
-        <v>0.36172490726176953</v>
+        <v>0.32176232985716191</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -8622,11 +8602,11 @@
       </c>
       <c r="C7" s="3">
         <f ca="1">RAND()</f>
-        <v>9.2311336293713464E-2</v>
+        <v>0.17549631166522039</v>
       </c>
       <c r="D7" s="3">
         <f ca="1">RAND()^2</f>
-        <v>0.30601070030513533</v>
+        <v>0.31505186796532531</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>20</v>
@@ -8650,11 +8630,11 @@
       </c>
       <c r="C8" s="3">
         <f t="shared" ref="C8:C71" ca="1" si="0">RAND()</f>
-        <v>0.84189026511395115</v>
+        <v>0.56010078365830962</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" ref="D8:D71" ca="1" si="1">RAND()^2</f>
-        <v>0.113023551941275</v>
+        <v>0.67516661201149752</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -8668,11 +8648,11 @@
       </c>
       <c r="I8" s="3">
         <f ca="1">G9-G8</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J8" s="3">
         <f ca="1">I8/100</f>
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -8681,29 +8661,29 @@
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70575023366795508</v>
+        <v>4.9940068878209898E-2</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19086762748539404</v>
+        <v>4.0135780543295883E-2</v>
       </c>
       <c r="F9" s="3">
         <v>0.2</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" ref="G9:G13" ca="1" si="2">COUNTIF($C$7:$C$106,"&lt;="&amp;F9)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H9" s="3">
         <v>0.3</v>
       </c>
       <c r="I9" s="3">
         <f ca="1">G10-G9</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J9" s="3">
         <f t="shared" ref="J9:J12" ca="1" si="3">I9/100</f>
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -8712,29 +8692,29 @@
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9724125500594916E-2</v>
+        <v>0.16857701963829574</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85009534042600132</v>
+        <v>3.5602535454228962E-4</v>
       </c>
       <c r="F10" s="3">
         <v>0.4</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H10" s="3">
         <v>0.5</v>
       </c>
       <c r="I10" s="3">
         <f ca="1">G11-G10</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J10" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -8743,29 +8723,29 @@
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44305266864289239</v>
+        <v>0.80084865779789871</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13679005354783841</v>
+        <v>0.72151885571867014</v>
       </c>
       <c r="F11" s="3">
         <v>0.6</v>
       </c>
       <c r="G11" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H11" s="3">
         <v>0.7</v>
       </c>
       <c r="I11" s="3">
         <f ca="1">G12-G11</f>
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J11" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.26</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -8774,29 +8754,29 @@
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.7886833822599773E-2</v>
+        <v>0.32274745717724829</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90469097546400334</v>
+        <v>0.20189126712350042</v>
       </c>
       <c r="F12" s="3">
         <v>0.8</v>
       </c>
       <c r="G12" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H12" s="3">
         <v>0.9</v>
       </c>
       <c r="I12" s="3">
         <f ca="1">G13-G12</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J12" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14000000000000001</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8805,11 +8785,11 @@
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23998602278298131</v>
+        <v>0.51232944916910661</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1473100434643854E-2</v>
+        <v>0.95260106483707252</v>
       </c>
       <c r="F13" s="3">
         <v>1</v>
@@ -8818,10 +8798,10 @@
         <f t="shared" ca="1" si="2"/>
         <v>100</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="5">
         <f ca="1">SUM(I8:I12)</f>
         <v>100</v>
       </c>
@@ -8833,11 +8813,11 @@
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6089632452631348E-2</v>
+        <v>0.91770928399602103</v>
       </c>
       <c r="D14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>8.3269538158650902E-2</v>
+        <v>0.19885287631154275</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
@@ -8846,11 +8826,11 @@
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35471171218748054</v>
+        <v>0.35052056811437327</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13684637703224645</v>
+        <v>5.3926360286026941E-3</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>26</v>
@@ -8863,11 +8843,11 @@
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7795057718130437</v>
+        <v>0.9836137080093954</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42443178454758751</v>
+        <v>0.46882458574325514</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>20</v>
@@ -8888,11 +8868,11 @@
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39908309392331442</v>
+        <v>3.9567383728049688E-3</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29014872699384087</v>
+        <v>2.1367233552290438E-3</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -8906,7 +8886,7 @@
       </c>
       <c r="I17" s="3">
         <f ca="1">G18-G17</f>
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -8915,25 +8895,25 @@
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73888516460764586</v>
+        <v>0.61678746532423989</v>
       </c>
       <c r="D18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36215248827584834</v>
+        <v>0.72549325554352262</v>
       </c>
       <c r="F18" s="3">
         <v>0.2</v>
       </c>
       <c r="G18" s="3">
         <f t="shared" ref="G18:G22" ca="1" si="4">COUNTIF($D$7:$D$106,"&lt;="&amp;F18)</f>
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="H18" s="3">
         <v>0.3</v>
       </c>
       <c r="I18" s="3">
         <f ca="1">G19-G18</f>
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -8942,25 +8922,25 @@
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58682153465750841</v>
+        <v>0.66162745481643204</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21866989422656088</v>
+        <v>0.14049088679486038</v>
       </c>
       <c r="F19" s="3">
         <v>0.4</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H19" s="3">
         <v>0.5</v>
       </c>
       <c r="I19" s="3">
         <f ca="1">G20-G19</f>
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -8969,11 +8949,11 @@
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77535593444927342</v>
+        <v>0.21114708466322574</v>
       </c>
       <c r="D20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12497322771195195</v>
+        <v>5.1907044913112751E-2</v>
       </c>
       <c r="F20" s="3">
         <v>0.6</v>
@@ -8987,7 +8967,7 @@
       </c>
       <c r="I20" s="3">
         <f ca="1">G21-G20</f>
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -8996,25 +8976,25 @@
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10425494565606819</v>
+        <v>0.20234635522753053</v>
       </c>
       <c r="D21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20271952310978184</v>
+        <v>0.28075831988897931</v>
       </c>
       <c r="F21" s="3">
         <v>0.8</v>
       </c>
       <c r="G21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H21" s="3">
         <v>0.9</v>
       </c>
       <c r="I21" s="3">
         <f ca="1">G22-G21</f>
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9023,11 +9003,11 @@
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4953757647974959</v>
+        <v>0.75150016635748507</v>
       </c>
       <c r="D22" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50288376549218405</v>
+        <v>3.6265350441451391E-3</v>
       </c>
       <c r="F22" s="3">
         <v>1</v>
@@ -9036,10 +9016,10 @@
         <f t="shared" ca="1" si="4"/>
         <v>100</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="5">
         <f ca="1">SUM(I17:I21)</f>
         <v>100</v>
       </c>
@@ -9050,11 +9030,11 @@
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33520652585911581</v>
+        <v>0.20555112029036848</v>
       </c>
       <c r="D23" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>6.8056935027258597E-2</v>
+        <v>4.8654781764241109E-2</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
@@ -9063,11 +9043,11 @@
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2351083011811426E-2</v>
+        <v>1.3793467476694632E-2</v>
       </c>
       <c r="D24" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53561043144829934</v>
+        <v>0.48004978330607873</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -9076,11 +9056,11 @@
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12781267215217074</v>
+        <v>0.73704504014449101</v>
       </c>
       <c r="D25" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52841939545050276</v>
+        <v>0.64904871194177249</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
@@ -9089,11 +9069,11 @@
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.218543772255348E-2</v>
+        <v>0.56299253454571252</v>
       </c>
       <c r="D26" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72041512777715011</v>
+        <v>1.532238958091672E-3</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
@@ -9102,11 +9082,11 @@
       </c>
       <c r="C27" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6990853728578531</v>
+        <v>0.43370903606183453</v>
       </c>
       <c r="D27" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72719704906340765</v>
+        <v>0.56657552015421431</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
@@ -9115,11 +9095,11 @@
       </c>
       <c r="C28" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58678916993938879</v>
+        <v>0.79860400391885789</v>
       </c>
       <c r="D28" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77538780314558808</v>
+        <v>0.37138660443340987</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
@@ -9128,11 +9108,11 @@
       </c>
       <c r="C29" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47568961268862131</v>
+        <v>0.5588006932920826</v>
       </c>
       <c r="D29" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10728209667468831</v>
+        <v>2.9952716987723853E-4</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
@@ -9141,11 +9121,11 @@
       </c>
       <c r="C30" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60770753182958226</v>
+        <v>0.66483798981963838</v>
       </c>
       <c r="D30" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39685188441598607</v>
+        <v>8.6490769459140346E-2</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
@@ -9154,11 +9134,11 @@
       </c>
       <c r="C31" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72602221606626516</v>
+        <v>0.87538554611800201</v>
       </c>
       <c r="D31" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17371268559982136</v>
+        <v>4.067895809947504E-2</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
@@ -9167,11 +9147,11 @@
       </c>
       <c r="C32" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22832045372157628</v>
+        <v>0.70194272536719038</v>
       </c>
       <c r="D32" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68018807791990832</v>
+        <v>6.3066723376720007E-2</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
@@ -9180,11 +9160,11 @@
       </c>
       <c r="C33" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45033139508915099</v>
+        <v>0.26406134671064085</v>
       </c>
       <c r="D33" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19631965346379346</v>
+        <v>0.36630858798270266</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
@@ -9193,11 +9173,11 @@
       </c>
       <c r="C34" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7850624753033624E-2</v>
+        <v>0.62829358832027205</v>
       </c>
       <c r="D34" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69612600148021508</v>
+        <v>2.254510567380252E-2</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
@@ -9206,11 +9186,11 @@
       </c>
       <c r="C35" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80609486962985466</v>
+        <v>0.18970211253730473</v>
       </c>
       <c r="D35" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24709962419108128</v>
+        <v>0.36626506317787927</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
@@ -9219,11 +9199,11 @@
       </c>
       <c r="C36" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53689650329411087</v>
+        <v>0.94478453854219235</v>
       </c>
       <c r="D36" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79751263562422303</v>
+        <v>0.90108972825219458</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
@@ -9232,11 +9212,11 @@
       </c>
       <c r="C37" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38680063578930246</v>
+        <v>0.79782591283806437</v>
       </c>
       <c r="D37" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14818929961613245</v>
+        <v>1.7838369545963014E-2</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
@@ -9245,11 +9225,11 @@
       </c>
       <c r="C38" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55492432748920484</v>
+        <v>0.34765950749203789</v>
       </c>
       <c r="D38" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44478524828253835</v>
+        <v>0.58600556629277312</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
@@ -9258,11 +9238,11 @@
       </c>
       <c r="C39" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42571832570015411</v>
+        <v>0.2981428635949811</v>
       </c>
       <c r="D39" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53896014894480315</v>
+        <v>0.1737495886393455</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
@@ -9271,11 +9251,11 @@
       </c>
       <c r="C40" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50641140920456318</v>
+        <v>0.59962351740275011</v>
       </c>
       <c r="D40" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63867894047870721</v>
+        <v>1.9873395016286235E-2</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
@@ -9284,11 +9264,11 @@
       </c>
       <c r="C41" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77828905663357018</v>
+        <v>0.51312031829160121</v>
       </c>
       <c r="D41" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24590068649294669</v>
+        <v>6.694496409598771E-3</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
@@ -9297,11 +9277,11 @@
       </c>
       <c r="C42" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34696634635704682</v>
+        <v>0.18421858284064574</v>
       </c>
       <c r="D42" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5363798959267731E-2</v>
+        <v>0.76283656855225346</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
@@ -9310,11 +9290,11 @@
       </c>
       <c r="C43" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55010761085322957</v>
+        <v>8.1517434230528485E-2</v>
       </c>
       <c r="D43" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76321250631095172</v>
+        <v>0.31464884327278575</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
@@ -9323,11 +9303,11 @@
       </c>
       <c r="C44" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18692323866568217</v>
+        <v>0.80991171393255323</v>
       </c>
       <c r="D44" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.125530627502009</v>
+        <v>0.96710175139392407</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
@@ -9336,11 +9316,11 @@
       </c>
       <c r="C45" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91645134137400686</v>
+        <v>0.20324319558458936</v>
       </c>
       <c r="D45" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1340009636108747E-2</v>
+        <v>4.8308319551780849E-3</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
@@ -9349,11 +9329,11 @@
       </c>
       <c r="C46" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19003872173388281</v>
+        <v>0.25626127551149069</v>
       </c>
       <c r="D46" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98289458351739878</v>
+        <v>4.3169020526949951E-2</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
@@ -9362,11 +9342,11 @@
       </c>
       <c r="C47" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43305999391347483</v>
+        <v>9.7382553871118493E-2</v>
       </c>
       <c r="D47" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4474633031326055E-2</v>
+        <v>0.59594858851570542</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
@@ -9375,11 +9355,11 @@
       </c>
       <c r="C48" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77581279558612481</v>
+        <v>0.55735222278679597</v>
       </c>
       <c r="D48" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51986322297665344</v>
+        <v>4.1140744870031983E-5</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
@@ -9388,11 +9368,11 @@
       </c>
       <c r="C49" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0157862319704281E-2</v>
+        <v>0.98290340845751945</v>
       </c>
       <c r="D49" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>7.6524819821815263E-2</v>
+        <v>0.84589499081374808</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
@@ -9401,11 +9381,11 @@
       </c>
       <c r="C50" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.0543184678117257E-2</v>
+        <v>8.7487900160218346E-2</v>
       </c>
       <c r="D50" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30480494642427042</v>
+        <v>9.9258275357702749E-2</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
@@ -9414,11 +9394,11 @@
       </c>
       <c r="C51" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25884769298399146</v>
+        <v>6.1307194594271475E-2</v>
       </c>
       <c r="D51" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.517617264946856</v>
+        <v>9.0049017642983759E-2</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
@@ -9427,11 +9407,11 @@
       </c>
       <c r="C52" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75358519687718084</v>
+        <v>0.76114753506367971</v>
       </c>
       <c r="D52" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31303884388447251</v>
+        <v>0.8709740465286353</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
@@ -9440,11 +9420,11 @@
       </c>
       <c r="C53" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43746974199053257</v>
+        <v>0.25569400071542103</v>
       </c>
       <c r="D53" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7717531661030177</v>
+        <v>8.7580752440440446E-2</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
@@ -9453,11 +9433,11 @@
       </c>
       <c r="C54" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5133680653682635E-2</v>
+        <v>0.55445174315165091</v>
       </c>
       <c r="D54" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37528381113464093</v>
+        <v>5.0462750213919223E-3</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
@@ -9466,11 +9446,11 @@
       </c>
       <c r="C55" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83757642215726202</v>
+        <v>0.12087593830035659</v>
       </c>
       <c r="D55" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14870345361924997</v>
+        <v>0.42606293300718301</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
@@ -9479,11 +9459,11 @@
       </c>
       <c r="C56" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99151916393465889</v>
+        <v>0.61398347785300178</v>
       </c>
       <c r="D56" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12913514944250251</v>
+        <v>2.5131333563616644E-3</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
@@ -9492,11 +9472,11 @@
       </c>
       <c r="C57" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61534981383459797</v>
+        <v>0.37685109164796349</v>
       </c>
       <c r="D57" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75752080395592936</v>
+        <v>8.4675069570953054E-2</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
@@ -9505,11 +9485,11 @@
       </c>
       <c r="C58" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54050277966983307</v>
+        <v>0.39806453956534171</v>
       </c>
       <c r="D58" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.789968541031545E-3</v>
+        <v>5.0743304167506526E-2</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
@@ -9518,11 +9498,11 @@
       </c>
       <c r="C59" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69416438677583747</v>
+        <v>8.8514274059693809E-2</v>
       </c>
       <c r="D59" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.3329141150091083E-2</v>
+        <v>0.71604375609718884</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
@@ -9531,11 +9511,11 @@
       </c>
       <c r="C60" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56121540614669208</v>
+        <v>5.9405599273963938E-2</v>
       </c>
       <c r="D60" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41945408429788761</v>
+        <v>0.84578162795865164</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
@@ -9544,11 +9524,11 @@
       </c>
       <c r="C61" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61883601468908789</v>
+        <v>0.36845331764685407</v>
       </c>
       <c r="D61" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6428703776132524E-2</v>
+        <v>7.1619902990668347E-3</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
@@ -9557,11 +9537,11 @@
       </c>
       <c r="C62" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81082274538374122</v>
+        <v>0.29485613498666008</v>
       </c>
       <c r="D62" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.5586432497080149E-2</v>
+        <v>0.75687519620275046</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
@@ -9570,11 +9550,11 @@
       </c>
       <c r="C63" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61266330036191252</v>
+        <v>0.40639351925252265</v>
       </c>
       <c r="D63" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79019173369687834</v>
+        <v>0.36766167729165011</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
@@ -9583,11 +9563,11 @@
       </c>
       <c r="C64" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4563552492192562E-2</v>
+        <v>0.31629496485455844</v>
       </c>
       <c r="D64" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29911902388313849</v>
+        <v>0.86194793068450937</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
@@ -9596,11 +9576,11 @@
       </c>
       <c r="C65" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79176342150939438</v>
+        <v>0.32911501245951391</v>
       </c>
       <c r="D65" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27693883151170778</v>
+        <v>0.14536872107799093</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
@@ -9609,11 +9589,11 @@
       </c>
       <c r="C66" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26108771029011091</v>
+        <v>0.4868807299288388</v>
       </c>
       <c r="D66" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15177074544526439</v>
+        <v>9.9267640378563046E-2</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
@@ -9622,11 +9602,11 @@
       </c>
       <c r="C67" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59445231219747197</v>
+        <v>0.87146796798083159</v>
       </c>
       <c r="D67" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46289135229528422</v>
+        <v>0.63361024675065503</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
@@ -9635,11 +9615,11 @@
       </c>
       <c r="C68" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2474963322602004</v>
+        <v>0.60690359677832972</v>
       </c>
       <c r="D68" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92109151348620832</v>
+        <v>0.16183983186550405</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
@@ -9648,11 +9628,11 @@
       </c>
       <c r="C69" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37756387041811224</v>
+        <v>0.95355665347843188</v>
       </c>
       <c r="D69" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>6.9225040498010523E-2</v>
+        <v>0.57976998000378954</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
@@ -9661,11 +9641,11 @@
       </c>
       <c r="C70" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98932975898236197</v>
+        <v>0.96778456193894791</v>
       </c>
       <c r="D70" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33922085834798515</v>
+        <v>0.42567009239746834</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
@@ -9674,11 +9654,11 @@
       </c>
       <c r="C71" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21047336802267136</v>
+        <v>0.13369834286416304</v>
       </c>
       <c r="D71" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39316707119574917</v>
+        <v>0.67803958071247561</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
@@ -9687,11 +9667,11 @@
       </c>
       <c r="C72" s="3">
         <f t="shared" ref="C72:C106" ca="1" si="5">RAND()</f>
-        <v>0.93237949751312077</v>
+        <v>0.261376324513511</v>
       </c>
       <c r="D72" s="3">
         <f t="shared" ref="D72:D106" ca="1" si="6">RAND()^2</f>
-        <v>0.3786013306193769</v>
+        <v>0.39585664659701669</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
@@ -9700,11 +9680,11 @@
       </c>
       <c r="C73" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.85537576799932902</v>
+        <v>6.2356178705468057E-2</v>
       </c>
       <c r="D73" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.49700021511779841</v>
+        <v>6.3800987240576271E-2</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
@@ -9713,11 +9693,11 @@
       </c>
       <c r="C74" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.67416866734401315</v>
+        <v>0.71744983392247119</v>
       </c>
       <c r="D74" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.5781756012744852</v>
+        <v>0.63217420966792415</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
@@ -9726,11 +9706,11 @@
       </c>
       <c r="C75" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.73153492314811996</v>
+        <v>0.22032478738336825</v>
       </c>
       <c r="D75" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.57968208692074041</v>
+        <v>5.5315222086278884E-2</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
@@ -9739,11 +9719,11 @@
       </c>
       <c r="C76" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.96120644867988947</v>
+        <v>3.9743899491623935E-2</v>
       </c>
       <c r="D76" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.24986322434314914</v>
+        <v>0.15073506130112835</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
@@ -9752,11 +9732,11 @@
       </c>
       <c r="C77" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.22180283412251411</v>
+        <v>0.88904030357088226</v>
       </c>
       <c r="D77" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>4.2283332196643691E-3</v>
+        <v>0.3204890831277718</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
@@ -9765,11 +9745,11 @@
       </c>
       <c r="C78" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.64405647500022789</v>
+        <v>0.75171935811508883</v>
       </c>
       <c r="D78" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.93007772429975044</v>
+        <v>0.33927158473632407</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
@@ -9778,11 +9758,11 @@
       </c>
       <c r="C79" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.39493626770226709</v>
+        <v>0.35531069783233382</v>
       </c>
       <c r="D79" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>8.7677363843253683E-2</v>
+        <v>4.5914483547693515E-2</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
@@ -9791,11 +9771,11 @@
       </c>
       <c r="C80" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.65172369984836565</v>
+        <v>0.76628792816399505</v>
       </c>
       <c r="D80" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.7573129059235294</v>
+        <v>0.20592302616591968</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
@@ -9804,11 +9784,11 @@
       </c>
       <c r="C81" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.80133316540509703</v>
+        <v>0.18533226084963805</v>
       </c>
       <c r="D81" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.1311486395995313</v>
+        <v>0.4246002820236045</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
@@ -9817,11 +9797,11 @@
       </c>
       <c r="C82" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.33539643224658122</v>
+        <v>0.94452180588255674</v>
       </c>
       <c r="D82" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>4.6363785328057842E-2</v>
+        <v>0.46628240788331593</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
@@ -9830,11 +9810,11 @@
       </c>
       <c r="C83" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.55638517482701788</v>
+        <v>0.18801071783797652</v>
       </c>
       <c r="D83" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>3.7946520244281558E-2</v>
+        <v>4.6778866062269032E-2</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
@@ -9843,11 +9823,11 @@
       </c>
       <c r="C84" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>2.4750382987463126E-2</v>
+        <v>0.2421748887743852</v>
       </c>
       <c r="D84" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3665311913904875E-2</v>
+        <v>0.25093641958334789</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
@@ -9856,11 +9836,11 @@
       </c>
       <c r="C85" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.64614905113502974</v>
+        <v>0.20050600470365676</v>
       </c>
       <c r="D85" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.31980861777793934</v>
+        <v>0.8226889880607392</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
@@ -9869,11 +9849,11 @@
       </c>
       <c r="C86" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>3.6717913658571799E-2</v>
+        <v>0.8884991822787538</v>
       </c>
       <c r="D86" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>4.6121621270780143E-3</v>
+        <v>6.2264178673221662E-2</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
@@ -9882,11 +9862,11 @@
       </c>
       <c r="C87" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.6066764744845704</v>
+        <v>0.63717842727108687</v>
       </c>
       <c r="D87" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>4.2705786832298538E-2</v>
+        <v>0.26656507562553389</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
@@ -9895,11 +9875,11 @@
       </c>
       <c r="C88" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.34417581460136804</v>
+        <v>0.78042972149205647</v>
       </c>
       <c r="D88" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.66454679677471806</v>
+        <v>7.7006589715721288E-2</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.25">
@@ -9908,11 +9888,11 @@
       </c>
       <c r="C89" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.340929155781032</v>
+        <v>0.47136317884542256</v>
       </c>
       <c r="D89" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.65933571050133288</v>
+        <v>3.0386905783884983E-2</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
@@ -9921,11 +9901,11 @@
       </c>
       <c r="C90" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.64671372840429331</v>
+        <v>2.3455630554524598E-2</v>
       </c>
       <c r="D90" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.78946286957009448</v>
+        <v>0.44432617122901696</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
@@ -9934,11 +9914,11 @@
       </c>
       <c r="C91" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.70628317728683088</v>
+        <v>0.57841345181184367</v>
       </c>
       <c r="D91" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2020530172783089E-2</v>
+        <v>0.18560108796005814</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.25">
@@ -9947,11 +9927,11 @@
       </c>
       <c r="C92" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.73889280826275161</v>
+        <v>2.5176587857975719E-2</v>
       </c>
       <c r="D92" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.21393985424448586</v>
+        <v>0.4693752695484687</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.25">
@@ -9960,11 +9940,11 @@
       </c>
       <c r="C93" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.49390359060135425</v>
+        <v>0.80018804079290284</v>
       </c>
       <c r="D93" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.53878516545776534</v>
+        <v>0.19424862279161023</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.25">
@@ -9973,11 +9953,11 @@
       </c>
       <c r="C94" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.14316506173804144</v>
+        <v>0.59884028008199808</v>
       </c>
       <c r="D94" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.81630551837347953</v>
+        <v>3.1399343741132388E-2</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
@@ -9986,11 +9966,11 @@
       </c>
       <c r="C95" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.39077441879271679</v>
+        <v>0.51781470151844899</v>
       </c>
       <c r="D95" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2693251206595133E-2</v>
+        <v>0.31669581536530261</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
@@ -9999,11 +9979,11 @@
       </c>
       <c r="C96" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.3572337529271451</v>
+        <v>0.9847633009677812</v>
       </c>
       <c r="D96" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.49786472055057301</v>
+        <v>0.18444612003061378</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
@@ -10012,11 +9992,11 @@
       </c>
       <c r="C97" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.29060406248199344</v>
+        <v>0.59055016357183243</v>
       </c>
       <c r="D97" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.55750913965482973</v>
+        <v>0.72342095174445897</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
@@ -10025,11 +10005,11 @@
       </c>
       <c r="C98" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.90516848925182491</v>
+        <v>0.4388183657431628</v>
       </c>
       <c r="D98" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.78907027178114497</v>
+        <v>7.8001553660596454E-2</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
@@ -10038,11 +10018,11 @@
       </c>
       <c r="C99" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.82473812642608579</v>
+        <v>0.90290738735329368</v>
       </c>
       <c r="D99" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.65073126791805913</v>
+        <v>5.083279450108967E-2</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.25">
@@ -10051,11 +10031,11 @@
       </c>
       <c r="C100" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.96769657463066094</v>
+        <v>0.9879180534922346</v>
       </c>
       <c r="D100" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.2318565692488761</v>
+        <v>0.11275224695572097</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.25">
@@ -10064,11 +10044,11 @@
       </c>
       <c r="C101" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>8.6782540128051311E-2</v>
+        <v>0.69287323050274752</v>
       </c>
       <c r="D101" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.35550182790088425</v>
+        <v>0.88824112917002318</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.25">
@@ -10077,11 +10057,11 @@
       </c>
       <c r="C102" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4.8659797606667721E-2</v>
+        <v>0.19756978183108409</v>
       </c>
       <c r="D102" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>1.5819959778606254E-2</v>
+        <v>0.69129079300397278</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.25">
@@ -10090,11 +10070,11 @@
       </c>
       <c r="C103" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.71076205272618231</v>
+        <v>0.73472776012753593</v>
       </c>
       <c r="D103" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.46475485296951041</v>
+        <v>0.18968814976013659</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.25">
@@ -10103,11 +10083,11 @@
       </c>
       <c r="C104" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.36115770355618881</v>
+        <v>0.43881315689204281</v>
       </c>
       <c r="D104" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.33312185041460479</v>
+        <v>0.92565107709109185</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.25">
@@ -10116,11 +10096,11 @@
       </c>
       <c r="C105" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.62537060681909107</v>
+        <v>0.20732529865738658</v>
       </c>
       <c r="D105" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>2.5131681992318709E-2</v>
+        <v>0.9443188374506456</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.25">
@@ -10129,11 +10109,11 @@
       </c>
       <c r="C106" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.44503704440232861</v>
+        <v>0.87665702342078022</v>
       </c>
       <c r="D106" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.22116273614253165</v>
+        <v>6.1823324104239375E-3</v>
       </c>
     </row>
   </sheetData>
